--- a/ExcelData/Data_Table/SpritTable.xlsx
+++ b/ExcelData/Data_Table/SpritTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC64567-8CA2-482A-B879-73235778AF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D31F703-5421-4F29-9F94-0FBD8D39142B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="22530" windowHeight="12210" activeTab="1" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="TableList" sheetId="2" r:id="rId1"/>
@@ -1105,7 +1105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1145,56 +1145,89 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1205,52 +1238,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1636,10 +1627,10 @@
       <c r="F2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="35"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="34"/>
       <c r="J2" s="7" t="s">
         <v>46</v>
@@ -1663,10 +1654,10 @@
       <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="35"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="34"/>
       <c r="J3" s="9" t="s">
         <v>50</v>
@@ -1676,12 +1667,12 @@
     <row r="4" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A4" s="6"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="34"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="34"/>
       <c r="J4" s="11"/>
       <c r="K4" s="6"/>
@@ -1689,12 +1680,12 @@
     <row r="5" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A5" s="6"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="33"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="34"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="34"/>
       <c r="J5" s="11"/>
       <c r="K5" s="6"/>
@@ -1702,12 +1693,12 @@
     <row r="6" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A6" s="6"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="33"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="34"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="34"/>
       <c r="J6" s="11"/>
       <c r="K6" s="6"/>
@@ -1715,181 +1706,181 @@
     <row r="7" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A7" s="6"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="34"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="11"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A8" s="6"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="16"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A9" s="6"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A10" s="6"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="39"/>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
-      <c r="J10" s="18"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A11" s="6"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="18"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="39"/>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
-      <c r="J11" s="18"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A12" s="6"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="18"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="39"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="18"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A13" s="6"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="39"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
-      <c r="J13" s="18"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A14" s="6"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="39"/>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
-      <c r="J14" s="18"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A15" s="6"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="39"/>
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
-      <c r="J15" s="18"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A16" s="6"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="39"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="18"/>
+      <c r="J16" s="17"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A17" s="6"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="39"/>
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="18"/>
+      <c r="J17" s="17"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A18" s="6"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="39"/>
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="18"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A19" s="6"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="17"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A20" s="6"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="34"/>
       <c r="J20" s="11"/>
       <c r="K20" s="6"/>
@@ -1897,12 +1888,12 @@
     <row r="21" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A21" s="6"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="34"/>
       <c r="J21" s="11"/>
       <c r="K21" s="6"/>
@@ -1910,12 +1901,12 @@
     <row r="22" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A22" s="6"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="33"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="34"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="34"/>
       <c r="J22" s="11"/>
       <c r="K22" s="6"/>
@@ -1923,12 +1914,12 @@
     <row r="23" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A23" s="6"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="34"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="34"/>
       <c r="J23" s="11"/>
       <c r="K23" s="6"/>
@@ -1948,21 +1939,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
     <mergeCell ref="C4:C23"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:I4"/>
@@ -1979,6 +1955,21 @@
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="D10:D18"/>
     <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1987,13 +1978,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
-  <dimension ref="B2:S8"/>
+  <dimension ref="B2:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5:P5"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2007,52 +1998,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="21" t="s">
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="46" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:19">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="57"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2083,8 +2074,8 @@
       <c r="Q3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="52"/>
-      <c r="S3" s="50"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="47"/>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="2" t="s">
@@ -2199,132 +2190,112 @@
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="23">
         <v>100156</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="23">
         <v>1</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="23">
         <v>1</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="23">
         <v>100</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="24">
         <v>1</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="24">
         <v>0</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="23">
         <v>500</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="23">
         <v>10</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="24">
         <v>0.2</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="24">
         <v>1.5</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="24">
         <v>30</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="24">
         <v>40</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="25">
         <v>0</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="23">
         <v>0</v>
       </c>
-      <c r="S6" s="22"/>
+      <c r="S6" s="20"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <v>2</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <v>100159</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="23">
         <v>2</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="23">
         <v>2</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="23">
         <v>120</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="24">
         <v>1</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="24">
         <v>1</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="23">
         <v>500</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="23">
         <v>10</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="24">
         <v>0.2</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="24">
         <v>1.5</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="24">
         <v>30</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="24">
         <v>40</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="25">
         <v>0</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="23">
         <v>0</v>
       </c>
-      <c r="S7" s="23"/>
-    </row>
-    <row r="8" spans="2:19">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
+      <c r="S7" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="B5:S5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>

--- a/ExcelData/Data_Table/SpritTable.xlsx
+++ b/ExcelData/Data_Table/SpritTable.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D31F703-5421-4F29-9F94-0FBD8D39142B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F5F029-621A-43D1-B320-B566ED6DAEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="22530" windowHeight="12210" activeTab="1" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="22530" windowHeight="12210" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
-    <sheet name="TableList" sheetId="2" r:id="rId1"/>
-    <sheet name="Soul_Table" sheetId="1" r:id="rId2"/>
+    <sheet name="SpritTabeTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Soul_Table!$B$5:$S$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Soul_Table!$A$1:$S$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SpritTabeTable!$B$5:$R$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SpritTabeTable!$A$1:$R$8</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -210,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="2" shapeId="0" xr:uid="{8C276728-D164-4840-BB92-3481ACC75C39}">
+    <comment ref="P2" authorId="2" shapeId="0" xr:uid="{8C276728-D164-4840-BB92-3481ACC75C39}">
       <text>
         <r>
           <rPr>
@@ -233,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="3" shapeId="0" xr:uid="{0005841B-6D87-42AA-BEA6-F15FBDB4FEA1}">
+    <comment ref="Q2" authorId="3" shapeId="0" xr:uid="{0005841B-6D87-42AA-BEA6-F15FBDB4FEA1}">
       <text>
         <r>
           <rPr>
@@ -367,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="2" shapeId="0" xr:uid="{848F2BBC-251C-4F9D-932A-5C659BA0661C}">
+    <comment ref="K3" authorId="2" shapeId="0" xr:uid="{848F2BBC-251C-4F9D-932A-5C659BA0661C}">
       <text>
         <r>
           <rPr>
@@ -380,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{B05EA72A-B70A-4B23-A051-AD4B21C4C870}">
+    <comment ref="L3" authorId="2" shapeId="0" xr:uid="{B05EA72A-B70A-4B23-A051-AD4B21C4C870}">
       <text>
         <r>
           <rPr>
@@ -398,7 +397,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>번호</t>
   </si>
@@ -424,12 +423,6 @@
     <t>공격력</t>
   </si>
   <si>
-    <t>체력</t>
-  </si>
-  <si>
-    <t>방어력</t>
-  </si>
-  <si>
     <t>치명타 확률</t>
   </si>
   <si>
@@ -449,12 +442,6 @@
   </si>
   <si>
     <t>Atk</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>Def</t>
   </si>
   <si>
     <t>Crit_rate</t>
@@ -623,36 +610,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>참조 테이블</t>
-  </si>
-  <si>
-    <t>대분류</t>
-  </si>
-  <si>
-    <t>한글명</t>
-  </si>
-  <si>
-    <t>영문명</t>
-  </si>
-  <si>
-    <t>변수형</t>
-  </si>
-  <si>
-    <t>설명</t>
-  </si>
-  <si>
-    <t>Reference_Table</t>
-  </si>
-  <si>
-    <t>List_Group</t>
-  </si>
-  <si>
-    <t>Data_Type</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Atk_Speed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -682,6 +639,18 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChaceTarget</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감지대상</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -692,7 +661,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,31 +779,15 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -859,37 +812,12 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -908,373 +836,62 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1590,401 +1207,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC81B856-C114-4C3E-ABCC-32CC9B6ACE2F}">
-  <dimension ref="A1:K24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
+  <dimension ref="B2:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="1.75" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="11.25" customWidth="1"/>
-    <col min="10" max="10" width="49.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="6.75" customHeight="1"/>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A7" s="6"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A8" s="6"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A11" s="6"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A12" s="6"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A14" s="6"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A15" s="6"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A16" s="6"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A18" s="6"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A20" s="6"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A21" s="6"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A22" s="6"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A23" s="6"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" s="8" customFormat="1" ht="13.5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="C4:C23"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
-  <dimension ref="B2:S7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1992,321 +1222,305 @@
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="9.125" customWidth="1"/>
-    <col min="16" max="16" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.875" customWidth="1"/>
+    <col min="5" max="10" width="9.125" customWidth="1"/>
+    <col min="15" max="15" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19">
-      <c r="B2" s="46" t="s">
+    <row r="2" spans="2:18">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="50" t="s">
+      <c r="F2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="4" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="Q2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="46" t="s">
-        <v>26</v>
+      <c r="R2" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:19">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="1" t="s">
+    <row r="3" spans="2:18">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="I3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="13"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="D4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="K5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3">
+        <v>100156</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>100</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>30</v>
+      </c>
+      <c r="O6" s="4">
         <v>40</v>
       </c>
-      <c r="Q3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" s="49"/>
-      <c r="S3" s="47"/>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3"/>
     </row>
-    <row r="4" spans="2:19">
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19">
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="3" t="s">
+    <row r="7" spans="2:18">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="2:19">
-      <c r="B6" s="22">
+      <c r="E7" s="3">
+        <v>100159</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>120</v>
+      </c>
+      <c r="I7" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="23">
-        <v>100156</v>
-      </c>
-      <c r="F6" s="23">
+      <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="23">
-        <v>1</v>
-      </c>
-      <c r="H6" s="23">
-        <v>100</v>
-      </c>
-      <c r="I6" s="24">
-        <v>1</v>
-      </c>
-      <c r="J6" s="24">
+      <c r="K7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2</v>
+      </c>
+      <c r="N7" s="4">
+        <v>30</v>
+      </c>
+      <c r="O7" s="4">
+        <v>40</v>
+      </c>
+      <c r="P7" s="5">
         <v>0</v>
       </c>
-      <c r="K6" s="23">
-        <v>500</v>
-      </c>
-      <c r="L6" s="23">
-        <v>10</v>
-      </c>
-      <c r="M6" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="N6" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="O6" s="24">
-        <v>30</v>
-      </c>
-      <c r="P6" s="24">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="25">
+      <c r="Q7" s="3">
         <v>0</v>
       </c>
-      <c r="R6" s="23">
-        <v>0</v>
-      </c>
-      <c r="S6" s="20"/>
-    </row>
-    <row r="7" spans="2:19">
-      <c r="B7" s="22">
-        <v>2</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="23">
-        <v>100159</v>
-      </c>
-      <c r="F7" s="23">
-        <v>2</v>
-      </c>
-      <c r="G7" s="23">
-        <v>2</v>
-      </c>
-      <c r="H7" s="23">
-        <v>120</v>
-      </c>
-      <c r="I7" s="24">
-        <v>1</v>
-      </c>
-      <c r="J7" s="24">
-        <v>1</v>
-      </c>
-      <c r="K7" s="23">
-        <v>500</v>
-      </c>
-      <c r="L7" s="23">
-        <v>10</v>
-      </c>
-      <c r="M7" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="N7" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="O7" s="24">
-        <v>30</v>
-      </c>
-      <c r="P7" s="24">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="25">
-        <v>0</v>
-      </c>
-      <c r="R7" s="23">
-        <v>0</v>
-      </c>
-      <c r="S7" s="21"/>
+      <c r="R7" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:S5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
+  <autoFilter ref="B5:R5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
   <mergeCells count="9">
-    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="H2:O2"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="F2:F3"/>
   </mergeCells>
@@ -2319,7 +1533,7 @@
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="1" max="8" man="1"/>
-    <brk id="18" max="8" man="1"/>
+    <brk id="17" max="8" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/ExcelData/Data_Table/SpritTable.xlsx
+++ b/ExcelData/Data_Table/SpritTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F5F029-621A-43D1-B320-B566ED6DAEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F56A58-EA39-41A5-B5B7-EC5C20C0911B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="22530" windowHeight="12210" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="1500" yWindow="4425" windowWidth="14955" windowHeight="10320" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="SpritTabeTable" sheetId="1" r:id="rId1"/>
@@ -438,9 +438,6 @@
     <t>Name_EN</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>Atk</t>
   </si>
   <si>
@@ -651,6 +648,10 @@
   </si>
   <si>
     <t>감지대상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpritTableIndex</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -867,31 +868,31 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1211,10 +1212,10 @@
   <dimension ref="B2:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1222,65 +1223,66 @@
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.125" customWidth="1"/>
     <col min="15" max="15" width="13.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
       <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>22</v>
+      <c r="R2" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="14" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>38</v>
+      <c r="I3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>8</v>
@@ -1289,124 +1291,124 @@
         <v>9</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="12"/>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="I4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="M4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="16" t="s">
+      <c r="Q4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="16" t="s">
-        <v>23</v>
+      <c r="R4" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="I5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>24</v>
+      <c r="J5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -1414,10 +1416,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3">
         <v>100156</v>
@@ -1465,10 +1467,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3">
         <v>100159</v>

--- a/ExcelData/Data_Table/SpritTable.xlsx
+++ b/ExcelData/Data_Table/SpritTable.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Desktop\Yggdrasil\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F56A58-EA39-41A5-B5B7-EC5C20C0911B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB46FA16-D9F2-41CD-AD2F-120C3BB408A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="4425" windowWidth="14955" windowHeight="10320" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="8055" yWindow="6105" windowWidth="20835" windowHeight="8625" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="SpritTabeTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SpritTabeTable!$B$5:$R$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SpritTabeTable!$A$1:$R$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SpritTabeTable!$A$1:$R$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>번호</t>
   </si>
@@ -654,6 +654,54 @@
     <t>SpritTableIndex</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>얼음 정령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>독 정령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적 정령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근 불가 정령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐 정령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이속 증가 정령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice_Spirit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison_Spirit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invincibility_Spirit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeepAway_Spirit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal_Spirit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speedup_Spirit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -662,7 +710,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,8 +835,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -811,6 +871,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -843,7 +909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,6 +942,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1209,20 +1290,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
-  <dimension ref="B2:R7"/>
+  <dimension ref="B2:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="9.125" customWidth="1"/>
     <col min="15" max="15" width="13.875" bestFit="1" customWidth="1"/>
@@ -1230,51 +1311,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
       <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1302,8 +1383,8 @@
       <c r="P3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="12"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="2:18">
       <c r="B4" s="10" t="s">
@@ -1512,6 +1593,351 @@
         <v>0</v>
       </c>
       <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8">
+        <v>121001</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>0.15</v>
+      </c>
+      <c r="L8">
+        <v>1.5</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+      <c r="P8" s="14">
+        <v>170001</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>970006</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9">
+        <v>121002</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>0.15</v>
+      </c>
+      <c r="L9">
+        <v>1.5</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>40</v>
+      </c>
+      <c r="P9" s="14">
+        <v>170002</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>970001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10">
+        <v>122001</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>120</v>
+      </c>
+      <c r="P10" s="14">
+        <v>170003</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>970013</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11">
+        <v>122002</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>20</v>
+      </c>
+      <c r="P11" s="14">
+        <v>170004</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>970005</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12">
+        <v>123001</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>35</v>
+      </c>
+      <c r="P12" s="14">
+        <v>170005</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>970004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="2">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13">
+        <v>123002</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>20</v>
+      </c>
+      <c r="P13" s="14">
+        <v>170006</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>970009</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B5:R5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
@@ -1530,12 +1956,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="3" max="16" man="1"/>
-    <brk id="7" max="16383" man="1"/>
+    <brk id="3" max="17" man="1"/>
+    <brk id="13" max="17" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="1" max="8" man="1"/>
-    <brk id="17" max="8" man="1"/>
+    <brk id="1" max="22" man="1"/>
+    <brk id="17" max="22" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/ExcelData/Data_Table/SpritTable.xlsx
+++ b/ExcelData/Data_Table/SpritTable.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Desktop\Yggdrasil\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB46FA16-D9F2-41CD-AD2F-120C3BB408A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212AB9D7-2B8B-4911-A3E7-120C59BA9085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8055" yWindow="6105" windowWidth="20835" windowHeight="8625" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14715" windowHeight="10320" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="SpritTabeTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SpritTabeTable!$B$5:$R$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SpritTabeTable!$A$1:$R$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SpritTabeTable!$A$1:$R$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>번호</t>
   </si>
@@ -470,78 +470,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설치형</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정령</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소환형</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정령</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix_Soul</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Summon_Soul</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>공격속도</t>
@@ -707,10 +635,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,11 +673,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -807,20 +727,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="돋움"/>
@@ -836,13 +742,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF202124"/>
       <name val="Inherit"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -909,71 +828,62 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1290,80 +1200,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
-  <dimension ref="B2:R22"/>
+  <dimension ref="B2:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.125" customWidth="1"/>
-    <col min="15" max="15" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.875" customWidth="1"/>
+    <col min="1" max="1" width="2.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9" style="11"/>
+    <col min="3" max="3" width="13.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.125" style="11" customWidth="1"/>
+    <col min="11" max="14" width="9" style="11"/>
+    <col min="15" max="15" width="13.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9" style="11"/>
+    <col min="18" max="18" width="28.875" style="11" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="16" t="s">
+      <c r="F2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
       <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>37</v>
+      <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>8</v>
@@ -1371,124 +1285,124 @@
       <c r="L3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>46</v>
+      <c r="M3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="14"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="17"/>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="10" t="s">
+      <c r="N5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="Q5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1496,403 +1410,311 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3">
-        <v>100156</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>100</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="C6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="8">
+        <v>121001</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8">
         <v>0</v>
       </c>
-      <c r="K6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="I6" s="8">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8">
+        <v>10</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="L6" s="8">
         <v>1.5</v>
       </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4">
-        <v>30</v>
-      </c>
-      <c r="O6" s="4">
-        <v>40</v>
-      </c>
-      <c r="P6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3"/>
+      <c r="M6" s="8">
+        <v>2</v>
+      </c>
+      <c r="N6" s="8">
+        <v>5</v>
+      </c>
+      <c r="O6" s="8">
+        <v>20</v>
+      </c>
+      <c r="P6" s="3">
+        <v>170001</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>970006</v>
+      </c>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3">
-        <v>100159</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="C7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="8">
+        <v>121002</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8">
         <v>2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>6</v>
+      </c>
+      <c r="J7" s="8">
+        <v>10</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M7" s="8">
         <v>2</v>
       </c>
-      <c r="H7" s="3">
-        <v>120</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M7" s="3">
-        <v>2</v>
-      </c>
-      <c r="N7" s="4">
-        <v>30</v>
-      </c>
-      <c r="O7" s="4">
+      <c r="N7" s="8">
+        <v>5</v>
+      </c>
+      <c r="O7" s="8">
         <v>40</v>
       </c>
-      <c r="P7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3"/>
+      <c r="P7" s="3">
+        <v>170002</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>970001</v>
+      </c>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8">
-        <v>121001</v>
-      </c>
-      <c r="F8">
+      <c r="C8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="8">
+        <v>122001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>4</v>
+      </c>
+      <c r="J8" s="8">
+        <v>10</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
         <v>3</v>
       </c>
-      <c r="G8">
+      <c r="N8" s="8">
         <v>3</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <v>0.15</v>
-      </c>
-      <c r="L8">
-        <v>1.5</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>20</v>
-      </c>
-      <c r="P8" s="14">
-        <v>170001</v>
-      </c>
-      <c r="Q8" s="15">
-        <v>970006</v>
+      <c r="O8" s="8">
+        <v>120</v>
+      </c>
+      <c r="P8" s="3">
+        <v>170003</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>970013</v>
       </c>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9">
-        <v>121002</v>
-      </c>
-      <c r="F9">
+      <c r="C9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="8">
+        <v>122002</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>4</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
         <v>3</v>
       </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-      <c r="K9">
-        <v>0.15</v>
-      </c>
-      <c r="L9">
-        <v>1.5</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>5</v>
-      </c>
-      <c r="O9">
-        <v>40</v>
-      </c>
-      <c r="P9" s="14">
-        <v>170002</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>970001</v>
+      <c r="N9" s="8">
+        <v>3</v>
+      </c>
+      <c r="O9" s="8">
+        <v>20</v>
+      </c>
+      <c r="P9" s="3">
+        <v>170004</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>970005</v>
       </c>
     </row>
     <row r="10" spans="2:18">
       <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10">
-        <v>122001</v>
-      </c>
-      <c r="F10">
+      <c r="C10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="8">
+        <v>123001</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
+      <c r="H10" s="8">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="8">
+        <v>6</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
         <v>4</v>
       </c>
-      <c r="J10">
-        <v>10</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <v>120</v>
-      </c>
-      <c r="P10" s="14">
-        <v>170003</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>970013</v>
+      <c r="N10" s="8">
+        <v>5</v>
+      </c>
+      <c r="O10" s="8">
+        <v>35</v>
+      </c>
+      <c r="P10" s="3">
+        <v>170005</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>970004</v>
       </c>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11">
-        <v>122002</v>
-      </c>
-      <c r="F11">
+      <c r="C11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="8">
+        <v>123002</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
+      <c r="H11" s="8">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
+      <c r="I11" s="8">
+        <v>11</v>
+      </c>
+      <c r="J11" s="8">
         <v>0</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="8">
         <v>0</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="8">
         <v>0</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="8">
         <v>3</v>
       </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-      <c r="O11">
+      <c r="N11" s="8">
+        <v>10</v>
+      </c>
+      <c r="O11" s="8">
         <v>20</v>
       </c>
-      <c r="P11" s="14">
-        <v>170004</v>
-      </c>
-      <c r="Q11" s="15">
-        <v>970005</v>
+      <c r="P11" s="3">
+        <v>170006</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>970009</v>
       </c>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="2">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12">
-        <v>123001</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>6</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <v>5</v>
-      </c>
-      <c r="O12">
-        <v>35</v>
-      </c>
-      <c r="P12" s="14">
-        <v>170005</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>970004</v>
-      </c>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="2">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13">
-        <v>123002</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>11</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
-      <c r="N13">
-        <v>10</v>
-      </c>
-      <c r="O13">
-        <v>20</v>
-      </c>
-      <c r="P13" s="14">
-        <v>170006</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>970009</v>
-      </c>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="2">
@@ -1927,16 +1749,6 @@
     <row r="20" spans="2:2">
       <c r="B20" s="2">
         <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +1769,7 @@
   <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="17" man="1"/>
-    <brk id="13" max="17" man="1"/>
+    <brk id="11" max="17" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="1" max="22" man="1"/>

--- a/ExcelData/Data_Table/SpritTable.xlsx
+++ b/ExcelData/Data_Table/SpritTable.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212AB9D7-2B8B-4911-A3E7-120C59BA9085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50479D1D-F1AF-47CA-99C2-9E2E03D32B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14715" windowHeight="10320" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
-    <sheet name="SpritTabeTable" sheetId="1" r:id="rId1"/>
+    <sheet name="SpritTabe_Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SpritTabeTable!$B$5:$R$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SpritTabeTable!$A$1:$R$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SpritTabe_Table!$B$5:$R$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SpritTabe_Table!$A$1:$R$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>

--- a/ExcelData/Data_Table/SpritTable.xlsx
+++ b/ExcelData/Data_Table/SpritTable.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitSources\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212AB9D7-2B8B-4911-A3E7-120C59BA9085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA535397-57B9-4FB9-87B5-4E98C0CE5CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14715" windowHeight="10320" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
-    <sheet name="SpritTabeTable" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprit_Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SpritTabeTable!$B$5:$R$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SpritTabeTable!$A$1:$R$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sprit_Table!$B$5:$R$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sprit_Table!$A$1:$R$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1206,7 +1206,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:B20"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ExcelData/Data_Table/SpritTable.xlsx
+++ b/ExcelData/Data_Table/SpritTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitSources\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA535397-57B9-4FB9-87B5-4E98C0CE5CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F837641-BA9D-4F3E-9B5E-089209C5FC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
@@ -607,27 +607,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Ice_Spirit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poison_Spirit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invincibility_Spirit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KeepAway_Spirit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heal_Spirit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speedup_Spirit</t>
+    <t>Cryomancer4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Necromancer3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Druid2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geomancer5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paladin14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rogue3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1202,11 +1202,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
   <dimension ref="B2:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1514,7 +1514,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" s="8">
         <v>122001</v>
@@ -1614,7 +1614,7 @@
         <v>48</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="8">
         <v>123001</v>

--- a/ExcelData/Data_Table/SpritTable.xlsx
+++ b/ExcelData/Data_Table/SpritTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F837641-BA9D-4F3E-9B5E-089209C5FC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C851F97-55C5-4C4D-90CE-6F669913D050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="-13365" yWindow="3180" windowWidth="24540" windowHeight="7830" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprit_Table" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>번호</t>
   </si>
@@ -583,51 +583,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>얼음 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>독 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무적 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>접근 불가 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이속 증가 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cryomancer4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Necromancer3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Druid2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geomancer5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paladin14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rogue3</t>
+    <t>공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공버프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광역 공격 [바이킹으로 변경]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적은 정령 변경 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴은 전부다 새로 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>천사 여전히 유지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미녀 사용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1202,11 +1214,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
   <dimension ref="B2:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1411,25 +1423,23 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>50</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="8">
         <v>121001</v>
       </c>
-      <c r="F6" s="8">
-        <v>3</v>
+      <c r="F6" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
       </c>
       <c r="H6" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J6" s="8">
         <v>10</v>
@@ -1441,19 +1451,22 @@
         <v>1.5</v>
       </c>
       <c r="M6" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O6" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P6" s="3">
         <v>170001</v>
       </c>
       <c r="Q6" s="12">
         <v>970006</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:18">
@@ -1461,25 +1474,21 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>51</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="8">
         <v>121002</v>
       </c>
-      <c r="F7" s="8">
-        <v>3</v>
-      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="8">
         <v>2</v>
       </c>
       <c r="H7" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J7" s="8">
         <v>10</v>
@@ -1494,16 +1503,19 @@
         <v>2</v>
       </c>
       <c r="N7" s="8">
-        <v>5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O7" s="8">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="P7" s="3">
         <v>170002</v>
       </c>
       <c r="Q7" s="12">
         <v>970001</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:18">
@@ -1511,49 +1523,50 @@
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D8" s="10"/>
       <c r="E8" s="8">
         <v>122001</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="8">
-        <v>2</v>
-      </c>
       <c r="H8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="8">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J8" s="8">
         <v>10</v>
       </c>
       <c r="K8" s="8">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="L8" s="8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M8" s="8">
         <v>3</v>
       </c>
       <c r="N8" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O8" s="8">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="P8" s="3">
         <v>170003</v>
       </c>
       <c r="Q8" s="12">
         <v>970013</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:18">
@@ -1561,49 +1574,48 @@
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="8">
         <v>122002</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8">
+        <v>3</v>
+      </c>
+      <c r="H9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="8">
+      <c r="I9" s="8">
         <v>1</v>
       </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>4</v>
-      </c>
       <c r="J9" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K9" s="8">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="L9" s="8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M9" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O9" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P9" s="3">
         <v>170004</v>
       </c>
       <c r="Q9" s="12">
         <v>970005</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:18">
@@ -1611,49 +1623,50 @@
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="8">
         <v>123001</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="8">
         <v>2</v>
       </c>
-      <c r="G10" s="8">
+      <c r="H10" s="8">
+        <v>10</v>
+      </c>
+      <c r="I10" s="8">
         <v>1</v>
       </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>6</v>
-      </c>
       <c r="J10" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K10" s="8">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="L10" s="8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M10" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O10" s="8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P10" s="3">
         <v>170005</v>
       </c>
       <c r="Q10" s="12">
         <v>970004</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:18">
@@ -1661,49 +1674,48 @@
         <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D11" s="8"/>
       <c r="E11" s="8">
         <v>123002</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
         <v>2</v>
       </c>
-      <c r="G11" s="8">
+      <c r="H11" s="8">
         <v>1</v>
       </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
       <c r="I11" s="8">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J11" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K11" s="8">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="L11" s="8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M11" s="8">
         <v>3</v>
       </c>
       <c r="N11" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O11" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P11" s="3">
         <v>170006</v>
       </c>
       <c r="Q11" s="12">
         <v>970009</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:18">
